--- a/APM_Tools_Evaluation_v0.1_Prince.xlsx
+++ b/APM_Tools_Evaluation_v0.1_Prince.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>S.No.</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Yes(30)</t>
-  </si>
-  <si>
-    <t>Yes(14)</t>
-  </si>
-  <si>
     <t>$90-200 per month per server</t>
   </si>
   <si>
@@ -164,10 +158,35 @@
 per host/per month/billed annually</t>
   </si>
   <si>
-    <t>Contact sales</t>
-  </si>
-  <si>
     <t>Self service,Flexible pricing,Easy to integrate,Simple query interface</t>
+  </si>
+  <si>
+    <t>Tingyun</t>
+  </si>
+  <si>
+    <t>ManageEngine</t>
+  </si>
+  <si>
+    <t>Licensed</t>
+  </si>
+  <si>
+    <t>Not Disclosed</t>
+  </si>
+  <si>
+    <t>Optimize user experience by monitoring real users for problems such as crashes, errors, and stalls
+Rapid Deployment
+-customers continue to optimize System performance and user experience improve user satisfaction and enterprise competitiveness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gives us insights of the health of the systems e.g do you need more CPU or RAM, is the network slow, how is the availability of your systems
+It is a one top shop for your servers' and devices health and availability
+</t>
+  </si>
+  <si>
+    <t>The upgrade process can be cumbersome at times and can break the system</t>
+  </si>
+  <si>
+    <t>Tingyun Server/Tingyun Network/Tingyun Browser</t>
   </si>
 </sst>
 </file>
@@ -213,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,12 +281,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,6 +319,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -597,10 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +669,7 @@
     <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -687,7 +739,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -709,7 +761,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -731,7 +783,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -753,7 +805,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -777,7 +829,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -799,7 +851,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -821,7 +873,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -843,7 +895,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -865,7 +917,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -887,7 +939,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -920,11 +972,11 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
@@ -941,7 +993,7 @@
         <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -957,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>36</v>
@@ -981,10 +1033,10 @@
         <v>38</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -999,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
@@ -1021,13 +1073,98 @@
         <v>38</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1036,7 +1173,7 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
